--- a/resources/_rankings.xlsx
+++ b/resources/_rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Other\Coding\oii2021\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3EFA98-6995-40F7-814D-0CB4E055FBC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBA5B3-AB21-4FA0-A4E2-8DCCE285A0CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1635" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +441,28 @@
         <v>-1723</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B8">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>-1723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B9">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>-1553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/_rankings.xlsx
+++ b/resources/_rankings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Other\Coding\oii2021\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blubu\Documents\Coding\oii2021\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBA5B3-AB21-4FA0-A4E2-8DCCE285A0CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7A696B-BAAC-4B3B-98D9-F00EEEE2856B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1635" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,6 +87,1017 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44315</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44320</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44323</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44324</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44327</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44328</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-418C-402D-9A97-485ECD627609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="464500648"/>
+        <c:axId val="464501304"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="464500648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464501304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="464501304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464500648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>64769</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CC37FC-921B-427C-8B7B-8B74AD678165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,19 +1363,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44306</v>
       </c>
@@ -386,7 +1397,7 @@
         <v>-2317</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44307</v>
       </c>
@@ -397,7 +1408,7 @@
         <v>-1873</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44308</v>
       </c>
@@ -408,7 +1419,7 @@
         <v>-1873</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44309</v>
       </c>
@@ -419,7 +1430,7 @@
         <v>-1873</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44310</v>
       </c>
@@ -430,7 +1441,7 @@
         <v>-1873</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44311</v>
       </c>
@@ -441,7 +1452,7 @@
         <v>-1723</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44312</v>
       </c>
@@ -452,7 +1463,7 @@
         <v>-1723</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44313</v>
       </c>
@@ -463,7 +1474,195 @@
         <v>-1553</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B10">
+        <v>96</v>
+      </c>
+      <c r="C10">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B12">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B13">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B14">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B15">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B16">
+        <v>96</v>
+      </c>
+      <c r="C16">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B17">
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B18">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B19">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B20">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B21">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B22">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B23">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B24">
+        <v>96</v>
+      </c>
+      <c r="C24">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B25">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B26">
+        <v>106</v>
+      </c>
+      <c r="C26">
+        <v>-1482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>